--- a/data/long_bre/P18_2-Estudios-long_bre.xlsx
+++ b/data/long_bre/P18_2-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,62</t>
+          <t>14,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,58%</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>63,25%</t>
+          <t>-16,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>74,22%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16,13%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-13,7%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 6,66</t>
+          <t>-16,58; 9,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 23,0</t>
+          <t>3,08; 26,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 13,82</t>
+          <t>-4,13; 12,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-51,65; 44,45</t>
+          <t>-33,23; 10,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 162,71</t>
+          <t>-51,52; 49,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 65,07</t>
+          <t>11,61; 208,17</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-12,44; 60,57</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-61,12; 43,61</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,6</t>
+          <t>-10,22</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,34%</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,29%</t>
+          <t>12,18%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-20,53%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15,67%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 10,73</t>
+          <t>-12,09; 15,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 15,16</t>
+          <t>-7,97; 23,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 3,43</t>
+          <t>-23,08; -1,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 38,46</t>
+          <t>-8,01; 23,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 40,89</t>
+          <t>-29,89; 65,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,63; 7,55</t>
+          <t>-16,63; 76,51</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-39,79; -2,59</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-16,67; 81,16</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,45</t>
+          <t>-19,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-40,5%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>-48,35%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>25,14%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-6,24%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 18,41</t>
+          <t>-18,87; 17,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,32; -2,11</t>
+          <t>-40,89; -6,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 12,33</t>
+          <t>-2,51; 15,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 56,16</t>
+          <t>-12,63; 10,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,01; -7,36</t>
+          <t>-35,19; 55,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 68,21</t>
+          <t>-72,97; -19,25</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-8,54; 84,37</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-39,94; 63,57</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 5,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 4,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 0,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 40,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 16,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,63; 4,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,1%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>-2,52%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-19,44%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-13,99%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 7,74</t>
+          <t>-7,78; 7,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 7,06</t>
+          <t>-11,03; 6,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 11,7</t>
+          <t>-12,87; 0,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 20,47</t>
+          <t>-12,85; 4,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 16,69</t>
+          <t>-34,65; 48,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 30,57</t>
+          <t>-28,32; 22,02</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-36,55; 2,34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-38,86; 20,12</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,01%</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>-6,6%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-2,97%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 5,82</t>
+          <t>-3,26; 15,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 8,12</t>
+          <t>-12,02; 5,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 7,19</t>
+          <t>-3,38; 11,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 16,04</t>
+          <t>-9,73; 7,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 49,79</t>
+          <t>-7,59; 49,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 32,72</t>
+          <t>-22,68; 13,66</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-6,95; 28,17</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-18,22; 16,75</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-17,24%</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>-13,87%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,05%</t>
+          <t>20,84%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>22,16%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 2,92</t>
+          <t>-16,96; 3,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 13,84</t>
+          <t>-2,81; 11,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 3,19</t>
+          <t>-4,92; 7,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-46,27; 22,38</t>
+          <t>-1,9; 12,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 48,56</t>
+          <t>-33,73; 8,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 15,84</t>
+          <t>-12,99; 71,79</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-17,0; 38,13</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-7,39; 62,64</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-14,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 7,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 1,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 8,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 19,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 4,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 17,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>-5,68</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>-14,74%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>20,24%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-10,24%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-20,74%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 11,59</t>
+          <t>-9,39; 3,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 7,01</t>
+          <t>-2,91; 14,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 7,32</t>
+          <t>-8,42; 3,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 32,51</t>
+          <t>-14,29; 1,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-26,36; 54,64</t>
+          <t>-45,43; 34,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 41,84</t>
+          <t>-7,69; 52,36</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-30,6; 16,87</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-42,26; 8,68</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>-7,0</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-5,17%</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-10,07%</t>
+          <t>-13,71%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 3,11</t>
+          <t>-9,41; 8,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 8,37</t>
+          <t>-15,18; 2,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 0,95</t>
+          <t>-6,09; 8,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 21,06</t>
+          <t>-4,95; 12,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 30,37</t>
+          <t>-20,44; 24,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 3,68</t>
+          <t>-27,49; 4,98</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-10,12; 17,48</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-9,46; 30,02</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-5,03%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>5,96%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>8,84%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 4,6</t>
+          <t>-7,11; 12,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 3,25</t>
+          <t>-6,5; 6,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 5,28</t>
+          <t>-4,6; 7,59</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 12,05</t>
+          <t>-4,51; 9,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 7,36</t>
+          <t>-15,05; 35,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 11,68</t>
+          <t>-34,46; 54,08</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-18,94; 42,98</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-16,01; 46,84</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-5,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1732,838 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 6,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 2,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 5,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 17,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 15,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 27,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>4,71</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-9,31%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>16,91%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-10,11; 4,3</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-5,25; 15,67</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-45,56; 32,52</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-16,26; 73,23</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-4,36</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-6,48</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-9,87%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-12,16%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-12,35; 3,28</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-18,76; 5,84</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-24,99; 8,15</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-30,68; 12,69</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>5,86</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>14,78%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>9,43%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 14,76</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; 10,2</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 42,81</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-30,18; 70,09</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>4,47</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>-4,34</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>-7,55%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>14,71%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-9,51%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-15,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 2,56</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 9,25</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-6,89; 1,11</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-11,05; 1,67</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-26,42; 16,79</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 33,74</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-22,67; 4,59</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-32,34; 7,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>-3,85</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-0,06%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-7,89%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; 4,94</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-8,94; 1,16</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 4,84</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 8,62</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-10,88; 12,85</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-17,16; 2,57</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-9,44; 10,66</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-7,97; 21,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-2,94%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>10,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-3,79; 6,41</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 3,58</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 6,21</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 7,93</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-8,48; 16,52</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-24,84; 19,19</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; 28,93</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; 37,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
